--- a/Assignment1/詳細設計書.xlsx
+++ b/Assignment1/詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\市川航\Documents\2020_training\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BAF9AA-A2DC-4776-A844-753F2CA3FDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD20C190-E826-400D-81E8-D9661F4C6735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アクティビティ図" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,876 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスフォーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードフォーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスを入力</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードを入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームページ画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュースの見出し</t>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロファイルボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像と見出しを表示。
+クリックするとニュース詳細画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見せかけの表示</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト後はログイン画面へ遷移する。</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン押下で④⑤⑥のボタンが表示される</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップ表示を想定している</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュース詳細画面</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタン</t>
+  </si>
+  <si>
+    <t>戻るボタン</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出し</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームページ画面(ニュース一覧)へ遷移する。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュースの見出しを表示</t>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ画像を表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームページ画面へ遷移する。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索したいキーワードを入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理番号</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理機能</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力情報</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■メールアドレス
+■パスワード
+■クリック操作</t>
+    <rPh sb="21" eb="23">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力情報</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■メールアドレスとパスワードを入力し、ログインボタンをクリックすると情報をデータベースと照合し、ホームページ画面へ遷移する。
+1.メールアドレスのバリデーションチェック
+①テスト仕様書を参照
+2.パスワードのバリデーションチェック
+①テスト仕様書を参照
+3.フォーム情報の送信
+①ログインボタンをクリック
+②入力されたメールアドレスとパスワードをログインAPIに送る
+4.データベースとの照会
+①ログインAPIのメールアドレスとパスワードを用いてユーザ情報を抽出
+5.照合結果の送信
+①照合結果(成功・失敗)を送信する
+6.ログイン処理
+①照合結果により以下の処理を行う
+成功→ホームページ画面へ遷移
+失敗→ログイン画面にエラー出力</t>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="122" eb="125">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="248" eb="252">
+      <t>ショウゴウケッカ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="272" eb="274">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="276" eb="278">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="292" eb="294">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="301" eb="303">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="304" eb="306">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="307" eb="309">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■バリデーションチェックによる出力情報はテスト仕様書を参照
+■データベース照合失敗によるエラー出力(アラートで表示予定)
+■データベース照合成功によって遷移するホームページ画面</t>
+    <rPh sb="15" eb="19">
+      <t>シュツリョクジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■検索キーワード
+■クリック操作</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">■検索フォームに検索したいキーワードを入力。その後ホームページ画面へ遷移し、キーワードに関連した内容のニュースが一覧で表示される。
+1.検索ボタンをクリック
+①検索画面へ遷移
+2.検索キーワードの送信
+①キーワードをAPIに送る
+3.データベースとの照会
+①キーワードを用いて関係するニュース情報を抽出する
+4.クローリング
+①キーワードを用いてクローリングする
+5.ニュース情報を送信
+①データベース内の情報があればそれを送信
+②クローリングで得た情報を送信
+6.画面遷移
+</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■検索フォームで検索後はホームページ画面へ遷移。
+■データベース、クローリングで取得したニュース情報をホームページ画面で出力。</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュース情報(カテゴリー)表示</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■クリック操作</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■カテゴリーごとのニュースを表示させる。</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■カテゴリー別に表示されている項目をクリック後、カテゴリーに関連した情報を表示させる。
+未定</t>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ログアウトボタンをクリック後、ログアウトを実行する。ログアウト後はログイン画面へ遷移する。
+1.ログアウトボタンをクリック
+①画面遷移が実行</t>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ログイン画面の表示</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュース情報(詳細)表示</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ホームページ画面で気になるニュースをクリック後、詳細ニュース画面で詳細ニュースを表示させる。
+以下未定
+1.該当ニュースのURLをAPIで送る
+2.URLを用いてクローリングで本文を取得する</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>イカミテイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■詳細ニュースを表示させる。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,16 +913,39 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -66,12 +953,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -87,6 +1090,329 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>143855</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4455FDD-7B8F-45EA-9563-3899692C6139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="714375"/>
+          <a:ext cx="7020905" cy="2591162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124794</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EC6FDF-DB02-4898-B55D-5101E91C8F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="581025"/>
+          <a:ext cx="6944694" cy="3801005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>369277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346B0E8F-A369-436D-A1F3-48A360AE258C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="4714875"/>
+          <a:ext cx="1914525" cy="2798152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317618</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8F4209-CC95-4658-9851-E263D2F319F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162299" y="5610225"/>
+          <a:ext cx="1270119" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F72F2D9-ADB8-43CE-A524-57F13A924AD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724026" y="0"/>
+          <a:ext cx="2000250" cy="3232288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AAF7F7-65EE-4038-BCD7-53B8A3C5362B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="8648700"/>
+          <a:ext cx="1505160" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647874</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>228918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A12C49-3BEB-4879-8ABC-6910D8E72AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="11525250"/>
+          <a:ext cx="1247949" cy="2276793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,38 +1678,830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B1836E-47F8-449A-81D5-584202D73ABE}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DA39A7-1389-4787-858E-6A914E8C3F25}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="18">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B39" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="18">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B67" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="19"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="18">
+        <v>4</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B73" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="2:7" s="22" customFormat="1">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="2:7" s="22" customFormat="1">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="2:7" s="22" customFormat="1">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" spans="2:7" s="22" customFormat="1">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="2:7" s="22" customFormat="1">
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="2:7" s="22" customFormat="1">
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="18">
+        <v>5</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" spans="2:7" ht="187.5" customHeight="1">
+      <c r="B89" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="D73:E83"/>
+    <mergeCell ref="B73:C83"/>
+    <mergeCell ref="F73:G83"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D39:E61"/>
+    <mergeCell ref="B39:C61"/>
+    <mergeCell ref="F39:G61"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="D5:E33"/>
+    <mergeCell ref="B5:C33"/>
+    <mergeCell ref="F5:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -391,14 +2509,312 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E66F99A-C1C2-4F81-9678-8190B8DEBBA9}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="19.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.5" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="H3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="H4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="H5" s="10"/>
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="H6" s="11"/>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="22" spans="8:12">
+      <c r="H22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12">
+      <c r="H23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="8:12" ht="37.5">
+      <c r="H24" s="12"/>
+      <c r="I24" s="6">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" ht="56.25">
+      <c r="H25" s="12"/>
+      <c r="I25" s="6">
+        <v>3</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="8:12">
+      <c r="H26" s="12"/>
+      <c r="I26" s="6">
+        <v>4</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="8:12">
+      <c r="H27" s="12"/>
+      <c r="I27" s="6">
+        <v>5</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="8:12" ht="56.25">
+      <c r="H28" s="12"/>
+      <c r="I28" s="6">
+        <v>6</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12">
+      <c r="H34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" ht="37.5">
+      <c r="H35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="8:12">
+      <c r="H36" s="10"/>
+      <c r="I36" s="6">
+        <v>2</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="8:12">
+      <c r="H37" s="10"/>
+      <c r="I37" s="6">
+        <v>3</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="8:12">
+      <c r="H38" s="11"/>
+      <c r="I38" s="6">
+        <v>4</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="45" spans="8:12">
+      <c r="H45" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="8:12">
+      <c r="H46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="8:12" ht="37.5">
+      <c r="H47" s="11"/>
+      <c r="I47" s="6">
+        <v>2</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="H46:H47"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -406,7 +2822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEF2444-00DA-4348-8641-D6ED19C59357}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>

--- a/Assignment1/詳細設計書.xlsx
+++ b/Assignment1/詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\市川航\Documents\2020_training\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD20C190-E826-400D-81E8-D9661F4C6735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7616CED2-9C64-420C-A1CD-B9AF6AD4C6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
